--- a/Documentation/tasks.xlsx
+++ b/Documentation/tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Desktop\LudusSMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franzonid\Desktop\Repositories\Repository_Pvt\LudusSMA\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A784A6A5-84DB-4C75-AD51-D215EFD7BB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2772AA32-0A89-4466-B9F9-31D4217FB40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7485C16D-AEAE-4AAB-B805-2564F952D6CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7485C16D-AEAE-4AAB-B805-2564F952D6CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -50,34 +50,98 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Analisi bot telegram</t>
-  </si>
-  <si>
-    <t>Analisi API Instagram</t>
-  </si>
-  <si>
-    <t>Calendario</t>
-  </si>
-  <si>
-    <t>Storage image</t>
-  </si>
-  <si>
-    <t>chiamate API Instagram</t>
-  </si>
-  <si>
-    <t>chiamate API OpenAI</t>
-  </si>
-  <si>
-    <t>Analisi API OpenAI</t>
-  </si>
-  <si>
-    <t>Blob Storage</t>
-  </si>
-  <si>
-    <t>Google Calendar API</t>
-  </si>
-  <si>
-    <t>Google Drive API</t>
+    <t>Google Calendar</t>
+  </si>
+  <si>
+    <t>Create and expose APIs to recieve calls for Google Calendar notifications.</t>
+  </si>
+  <si>
+    <t>Create the webhook to direct notifications for events to our API</t>
+  </si>
+  <si>
+    <t>Exposing APIs</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Post API requests</t>
+  </si>
+  <si>
+    <t>Event API requests</t>
+  </si>
+  <si>
+    <t>Creation of API calls for post creation</t>
+  </si>
+  <si>
+    <t>Stories API requests</t>
+  </si>
+  <si>
+    <t>Events delete</t>
+  </si>
+  <si>
+    <t>Events and trigger creation</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>Docs API requests</t>
+  </si>
+  <si>
+    <t>Insert new image and its metadata into G Drive for creating instagram posts and stories</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>Create Post</t>
+  </si>
+  <si>
+    <t>Create Story</t>
+  </si>
+  <si>
+    <t>Upload Image</t>
+  </si>
+  <si>
+    <t>Create Event</t>
+  </si>
+  <si>
+    <t>Delete Event</t>
+  </si>
+  <si>
+    <t>Creation of API calls for stories creation.
+Figure out whether to fully automate story creation through G Calendar triggers or send an approval notification first.</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Image creation as a result of user recall</t>
+  </si>
+  <si>
+    <t>Automatic image creation for stories due to event description.</t>
+  </si>
+  <si>
+    <t>Automatic description creation for stories due to event description.</t>
+  </si>
+  <si>
+    <t>Description creation as a result of user recall</t>
+  </si>
+  <si>
+    <t>Webhook</t>
+  </si>
+  <si>
+    <t>Retrieval of an image and its metadata</t>
+  </si>
+  <si>
+    <t>Create the webhook to direct notifications for message to our API</t>
   </si>
 </sst>
 </file>
@@ -134,10 +198,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -472,20 +543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7078AA2E-4BFA-4BB2-A80D-9CA919A8295A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.54296875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="13.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,57 +571,141 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/tasks.xlsx
+++ b/Documentation/tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franzonid\Desktop\Repositories\Repository_Pvt\LudusSMA\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Desktop\LudusSMA\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2772AA32-0A89-4466-B9F9-31D4217FB40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF4547-B5E8-4FDB-9D53-616B55986EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7485C16D-AEAE-4AAB-B805-2564F952D6CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7485C16D-AEAE-4AAB-B805-2564F952D6CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Create the webhook to direct notifications for message to our API</t>
+  </si>
+  <si>
+    <t>Image Vision</t>
+  </si>
+  <si>
+    <t>Get description of an image to build the one in the post</t>
   </si>
 </sst>
 </file>
@@ -543,21 +549,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7078AA2E-4BFA-4BB2-A80D-9CA919A8295A}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.54296875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="13.08984375" style="2"/>
+    <col min="1" max="1" width="26.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="13.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -582,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
@@ -590,7 +596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -598,12 +604,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -614,12 +620,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -630,7 +636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -638,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -649,28 +655,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -678,7 +684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -689,22 +695,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
